--- a/excel/消费类样品.xlsx
+++ b/excel/消费类样品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2025消费类样品 线材" sheetId="1" r:id="rId1"/>
@@ -12728,10 +12728,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -12869,7 +12869,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12884,23 +12982,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12908,44 +12990,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12959,53 +13004,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -13041,7 +13041,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13053,13 +13101,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13071,37 +13155,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13113,115 +13221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13356,6 +13356,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -13380,21 +13389,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13412,6 +13406,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -13419,22 +13424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13461,10 +13461,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13473,133 +13473,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -28473,8 +28473,8 @@
   <sheetPr/>
   <dimension ref="A1:IV712"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="C578" sqref="C578"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="C482" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
